--- a/Sexual Behavior Data Sheets.xlsx
+++ b/Sexual Behavior Data Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16093\Desktop\Webster Research\florisuga_sex_behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92FD7E6C-92C0-4BE4-B961-4F73AC6826EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5259FD-2CCE-4961-8068-CA2BD43AB01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="733" yWindow="733" windowWidth="12200" windowHeight="10074" xr2:uid="{CEEB008F-C048-4C48-8B0A-CF4293719056}"/>
+    <workbookView xWindow="1467" yWindow="1467" windowWidth="12200" windowHeight="10073" xr2:uid="{CEEB008F-C048-4C48-8B0A-CF4293719056}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="53">
   <si>
     <t>trial_num</t>
   </si>
@@ -166,6 +166,33 @@
   </si>
   <si>
     <t>drab-female</t>
+  </si>
+  <si>
+    <t>M/MLF (assuming)</t>
+  </si>
+  <si>
+    <t>redo of previous trial</t>
+  </si>
+  <si>
+    <t>8:13 "dive but don't think is courtship"</t>
+  </si>
+  <si>
+    <t>Side not explicitly specified a few times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/MLF  </t>
+  </si>
+  <si>
+    <t>10:36 "lots of other action", likely not relevant tho</t>
+  </si>
+  <si>
+    <t>9:37 check video</t>
+  </si>
+  <si>
+    <t>9:06 "maybe copulate?"</t>
+  </si>
+  <si>
+    <t>Second page has nothing on it besides date,trial,etc.</t>
   </si>
 </sst>
 </file>
@@ -523,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BD80B7-1989-544C-8209-036C8493FC86}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -2488,132 +2515,421 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>43195</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>43196</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>43197</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>43199</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>43200</v>
+      </c>
+      <c r="D90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="C91" s="1"/>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>43201</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>43202</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>43203</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>43204</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>43205</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>43206</v>
+      </c>
+      <c r="D96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>43207</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>43208</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>43210</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>43211</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>43212</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1">
+        <v>43213</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.55000000000000004">
